--- a/result/verified/MRCPSP_MMLIB50_results_Savile_Row.xlsx
+++ b/result/verified/MRCPSP_MMLIB50_results_Savile_Row.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="554">
   <si>
     <t>instance</t>
   </si>
@@ -2489,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="T522" sqref="T522"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,11 +2525,11 @@
       </c>
       <c r="M1">
         <f>COUNTIF(F:F, "Optimal")</f>
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="N1">
         <f>COUNTIF(F:F, "Feasible")</f>
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5738,10 +5738,10 @@
         <v>144</v>
       </c>
       <c r="C122">
-        <v>2100694</v>
+        <v>5299329</v>
       </c>
       <c r="D122">
-        <v>13068018</v>
+        <v>19184672</v>
       </c>
       <c r="E122">
         <v>17</v>
@@ -5750,7 +5750,7 @@
         <v>27</v>
       </c>
       <c r="G122">
-        <v>1201.3399999999999</v>
+        <v>2401.38</v>
       </c>
       <c r="H122" t="s">
         <v>28</v>
@@ -5897,10 +5897,10 @@
         <v>148</v>
       </c>
       <c r="C128">
-        <v>1063776</v>
+        <v>2612462</v>
       </c>
       <c r="D128">
-        <v>10639914</v>
+        <v>13582648</v>
       </c>
       <c r="E128">
         <v>34</v>
@@ -5909,7 +5909,7 @@
         <v>27</v>
       </c>
       <c r="G128">
-        <v>1201.21</v>
+        <v>2401.19</v>
       </c>
       <c r="H128" t="s">
         <v>28</v>
@@ -5952,19 +5952,19 @@
         <v>153</v>
       </c>
       <c r="C130">
-        <v>1038960</v>
+        <v>2386627</v>
       </c>
       <c r="D130">
-        <v>9787453</v>
+        <v>12359324</v>
       </c>
       <c r="E130">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
         <v>27</v>
       </c>
       <c r="G130">
-        <v>1201.22</v>
+        <v>2401.2199999999998</v>
       </c>
       <c r="H130" t="s">
         <v>28</v>
@@ -6813,25 +6813,22 @@
         <v>168</v>
       </c>
       <c r="C163">
-        <v>2586232</v>
+        <v>7496581</v>
       </c>
       <c r="D163">
-        <v>13410562</v>
+        <v>22990075</v>
       </c>
       <c r="E163">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G163">
-        <v>1201.3399999999999</v>
+        <v>1430</v>
       </c>
       <c r="H163" t="s">
-        <v>28</v>
-      </c>
-      <c r="I163" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -6868,10 +6865,10 @@
         <v>145</v>
       </c>
       <c r="C165">
-        <v>2369839</v>
+        <v>6882044</v>
       </c>
       <c r="D165">
-        <v>14743861</v>
+        <v>23468566</v>
       </c>
       <c r="E165">
         <v>25</v>
@@ -6880,7 +6877,7 @@
         <v>27</v>
       </c>
       <c r="G165">
-        <v>1201.3699999999999</v>
+        <v>2401.56</v>
       </c>
       <c r="H165" t="s">
         <v>28</v>
@@ -9008,10 +9005,10 @@
         <v>128</v>
       </c>
       <c r="C245">
-        <v>1479618</v>
+        <v>2498864</v>
       </c>
       <c r="D245">
-        <v>11736563</v>
+        <v>13456788</v>
       </c>
       <c r="E245">
         <v>38</v>
@@ -9020,7 +9017,7 @@
         <v>27</v>
       </c>
       <c r="G245">
-        <v>1201.32</v>
+        <v>2401.21</v>
       </c>
       <c r="H245" t="s">
         <v>28</v>
@@ -9037,10 +9034,10 @@
         <v>155</v>
       </c>
       <c r="C246">
-        <v>1587057</v>
+        <v>2694262</v>
       </c>
       <c r="D246">
-        <v>14360462</v>
+        <v>16222848</v>
       </c>
       <c r="E246">
         <v>46</v>
@@ -9049,7 +9046,7 @@
         <v>27</v>
       </c>
       <c r="G246">
-        <v>1201.32</v>
+        <v>2401.2600000000002</v>
       </c>
       <c r="H246" t="s">
         <v>28</v>
@@ -9066,10 +9063,10 @@
         <v>42</v>
       </c>
       <c r="C247">
-        <v>1416578</v>
+        <v>2025042</v>
       </c>
       <c r="D247">
-        <v>11026960</v>
+        <v>11943118</v>
       </c>
       <c r="E247">
         <v>38</v>
@@ -9078,7 +9075,7 @@
         <v>27</v>
       </c>
       <c r="G247">
-        <v>1201.25</v>
+        <v>2401.04</v>
       </c>
       <c r="H247" t="s">
         <v>28</v>
@@ -9095,10 +9092,10 @@
         <v>157</v>
       </c>
       <c r="C248">
-        <v>1588293</v>
+        <v>2202295</v>
       </c>
       <c r="D248">
-        <v>13081264</v>
+        <v>13967591</v>
       </c>
       <c r="E248">
         <v>44</v>
@@ -9107,7 +9104,7 @@
         <v>27</v>
       </c>
       <c r="G248">
-        <v>1201.31</v>
+        <v>2401.13</v>
       </c>
       <c r="H248" t="s">
         <v>28</v>
@@ -9124,10 +9121,10 @@
         <v>52</v>
       </c>
       <c r="C249">
-        <v>1360252</v>
+        <v>2022575</v>
       </c>
       <c r="D249">
-        <v>11689794</v>
+        <v>12616873</v>
       </c>
       <c r="E249">
         <v>45</v>
@@ -9136,7 +9133,7 @@
         <v>27</v>
       </c>
       <c r="G249">
-        <v>1201.27</v>
+        <v>2401.15</v>
       </c>
       <c r="H249" t="s">
         <v>28</v>
@@ -9153,19 +9150,19 @@
         <v>52</v>
       </c>
       <c r="C250">
-        <v>1366283</v>
+        <v>1949406</v>
       </c>
       <c r="D250">
-        <v>10710498</v>
+        <v>11470817</v>
       </c>
       <c r="E250">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
         <v>27</v>
       </c>
       <c r="G250">
-        <v>1201.27</v>
+        <v>2401.16</v>
       </c>
       <c r="H250" t="s">
         <v>28</v>
@@ -9179,22 +9176,22 @@
         <v>263</v>
       </c>
       <c r="B251">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="C251">
-        <v>1647202</v>
+        <v>2119234</v>
       </c>
       <c r="D251">
-        <v>11994031</v>
+        <v>12583417</v>
       </c>
       <c r="E251">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F251" t="s">
         <v>27</v>
       </c>
       <c r="G251">
-        <v>1202.43</v>
+        <v>2401.31</v>
       </c>
       <c r="H251" t="s">
         <v>28</v>
@@ -9211,10 +9208,10 @@
         <v>179</v>
       </c>
       <c r="C252">
-        <v>1646343</v>
+        <v>2778588</v>
       </c>
       <c r="D252">
-        <v>13381399</v>
+        <v>15290933</v>
       </c>
       <c r="E252">
         <v>36</v>
@@ -9223,7 +9220,7 @@
         <v>27</v>
       </c>
       <c r="G252">
-        <v>1218.8</v>
+        <v>2401.31</v>
       </c>
       <c r="H252" t="s">
         <v>28</v>
@@ -9240,10 +9237,10 @@
         <v>132</v>
       </c>
       <c r="C253">
-        <v>1382288</v>
+        <v>1846165</v>
       </c>
       <c r="D253">
-        <v>10804668</v>
+        <v>11444694</v>
       </c>
       <c r="E253">
         <v>46</v>
@@ -9252,7 +9249,7 @@
         <v>27</v>
       </c>
       <c r="G253">
-        <v>1222.3</v>
+        <v>2401.16</v>
       </c>
       <c r="H253" t="s">
         <v>28</v>
@@ -14626,10 +14623,10 @@
         <v>144</v>
       </c>
       <c r="C456">
-        <v>1263869</v>
+        <v>1612946</v>
       </c>
       <c r="D456">
-        <v>9320269</v>
+        <v>9551699</v>
       </c>
       <c r="E456">
         <v>61</v>
@@ -14638,7 +14635,7 @@
         <v>27</v>
       </c>
       <c r="G456">
-        <v>1201.32</v>
+        <v>2401.23</v>
       </c>
       <c r="H456" t="s">
         <v>28</v>
@@ -15606,19 +15603,19 @@
         <v>142</v>
       </c>
       <c r="C493">
-        <v>1037197</v>
+        <v>1746634</v>
       </c>
       <c r="D493">
-        <v>7738213</v>
+        <v>8748364</v>
       </c>
       <c r="E493">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F493" t="s">
         <v>27</v>
       </c>
       <c r="G493">
-        <v>1201.27</v>
+        <v>2401.21</v>
       </c>
       <c r="H493" t="s">
         <v>28</v>
@@ -15635,25 +15632,22 @@
         <v>124</v>
       </c>
       <c r="C494">
-        <v>1445076</v>
+        <v>2477937</v>
       </c>
       <c r="D494">
-        <v>9714035</v>
+        <v>11466212</v>
       </c>
       <c r="E494">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F494" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G494">
-        <v>1201.33</v>
+        <v>1331.25</v>
       </c>
       <c r="H494" t="s">
-        <v>28</v>
-      </c>
-      <c r="I494" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.25">
@@ -15794,19 +15788,19 @@
         <v>141</v>
       </c>
       <c r="C500">
-        <v>1495951</v>
+        <v>2480491</v>
       </c>
       <c r="D500">
-        <v>10077576</v>
+        <v>11728790</v>
       </c>
       <c r="E500">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F500" t="s">
         <v>27</v>
       </c>
       <c r="G500">
-        <v>1201.27</v>
+        <v>2401.31</v>
       </c>
       <c r="H500" t="s">
         <v>28</v>
@@ -16421,10 +16415,10 @@
         <v>155</v>
       </c>
       <c r="C524">
-        <v>762643</v>
+        <v>1328166</v>
       </c>
       <c r="D524">
-        <v>7622213</v>
+        <v>8556862</v>
       </c>
       <c r="E524">
         <v>69</v>
@@ -16433,7 +16427,7 @@
         <v>27</v>
       </c>
       <c r="G524">
-        <v>1201.23</v>
+        <v>2401.1999999999998</v>
       </c>
       <c r="H524" t="s">
         <v>28</v>
@@ -16450,25 +16444,22 @@
         <v>141</v>
       </c>
       <c r="C525">
-        <v>748402</v>
+        <v>1474300</v>
       </c>
       <c r="D525">
-        <v>8071185</v>
+        <v>9307623</v>
       </c>
       <c r="E525">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F525" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G525">
-        <v>1201.27</v>
+        <v>1093.98</v>
       </c>
       <c r="H525" t="s">
-        <v>28</v>
-      </c>
-      <c r="I525" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.25">
@@ -16479,10 +16470,10 @@
         <v>145</v>
       </c>
       <c r="C526">
-        <v>822382</v>
+        <v>1396700</v>
       </c>
       <c r="D526">
-        <v>8143394</v>
+        <v>9121985</v>
       </c>
       <c r="E526">
         <v>75</v>
@@ -16491,7 +16482,7 @@
         <v>27</v>
       </c>
       <c r="G526">
-        <v>1201.31</v>
+        <v>2401.2600000000002</v>
       </c>
       <c r="H526" t="s">
         <v>28</v>
